--- a/test.xlsx
+++ b/test.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>Ipsum</t>
+    <t>'Ipsum'</t>
   </si>
   <si>
-    <t>Sit</t>
+    <t>'Sit'</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>'Ipsum'</t>
+    <t>Ipsum</t>
   </si>
   <si>
-    <t>'Sit'</t>
+    <t>Sit</t>
   </si>
 </sst>
 </file>
